--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA5517-EA9B-4BC0-A354-90E9FD8279DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91143369-5505-4124-B5FE-F8637260D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="24288" yWindow="1296" windowWidth="26832" windowHeight="14196" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Connector</t>
   </si>
@@ -57,12 +58,6 @@
     <t>TH0</t>
   </si>
   <si>
-    <t>F0</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Part Cooling Fan</t>
   </si>
   <si>
@@ -81,30 +76,18 @@
     <t>Auto Bed Leveling</t>
   </si>
   <si>
-    <t>E0</t>
-  </si>
-  <si>
     <t>Extruder Stepper</t>
   </si>
   <si>
     <t>E0 (MOT4 on Octopus)</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>X Limit Switch</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Y Limit Switch</t>
   </si>
   <si>
-    <t>Z1</t>
-  </si>
-  <si>
     <t>Left Z Limit Switch</t>
   </si>
   <si>
@@ -117,9 +100,6 @@
     <t>Z-STOP/Z-MIN</t>
   </si>
   <si>
-    <t>Z2</t>
-  </si>
-  <si>
     <t>Right Z Limit Switch</t>
   </si>
   <si>
@@ -153,49 +133,97 @@
     <t>Bed Power</t>
   </si>
   <si>
-    <t>THB</t>
-  </si>
-  <si>
     <t>Bed Thermistor</t>
   </si>
   <si>
     <t>External Connectors</t>
   </si>
   <si>
-    <t>MOTA</t>
-  </si>
-  <si>
     <t>Alpha Stepper</t>
   </si>
   <si>
     <t>X-MOT</t>
   </si>
   <si>
-    <t>MOTB</t>
-  </si>
-  <si>
     <t>Beta Stepper</t>
   </si>
   <si>
     <t>Y-MOT</t>
   </si>
   <si>
-    <t>MOTZ1</t>
-  </si>
-  <si>
     <t>Z1 Stepper</t>
   </si>
   <si>
     <t>Z-MOT</t>
   </si>
   <si>
-    <t>MOTZ2</t>
-  </si>
-  <si>
     <t>Z2 Stepper</t>
   </si>
   <si>
     <t>E1-MOT</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>SZ1</t>
+  </si>
+  <si>
+    <t>SZ2</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>MZ2</t>
+  </si>
+  <si>
+    <t>MZ1</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Chamber Thermistor</t>
+  </si>
+  <si>
+    <t>FC1</t>
+  </si>
+  <si>
+    <t>FC2</t>
+  </si>
+  <si>
+    <t>Chamber Exhaust</t>
+  </si>
+  <si>
+    <t>Chamber Filtration</t>
+  </si>
+  <si>
+    <t>FH1</t>
+  </si>
+  <si>
+    <t>FH2</t>
   </si>
 </sst>
 </file>
@@ -260,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -572,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +626,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -609,7 +637,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -620,194 +648,218 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
+      <c r="A20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91143369-5505-4124-B5FE-F8637260D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C743501C-7370-4915-A49D-B410626C5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24288" yWindow="1296" windowWidth="26832" windowHeight="14196" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="10332" yWindow="5100" windowWidth="27792" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Connector</t>
   </si>
@@ -79,9 +78,6 @@
     <t>Extruder Stepper</t>
   </si>
   <si>
-    <t>E0 (MOT4 on Octopus)</t>
-  </si>
-  <si>
     <t>X Limit Switch</t>
   </si>
   <si>
@@ -106,27 +102,6 @@
     <t>E0-DET/Z-MAX</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>LED Strip 1</t>
-  </si>
-  <si>
-    <t>LED Strip 2</t>
-  </si>
-  <si>
-    <t>LED Strip 3</t>
-  </si>
-  <si>
-    <t>Connects to splitter</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
@@ -136,33 +111,18 @@
     <t>Bed Thermistor</t>
   </si>
   <si>
-    <t>External Connectors</t>
-  </si>
-  <si>
     <t>Alpha Stepper</t>
   </si>
   <si>
-    <t>X-MOT</t>
-  </si>
-  <si>
     <t>Beta Stepper</t>
   </si>
   <si>
-    <t>Y-MOT</t>
-  </si>
-  <si>
     <t>Z1 Stepper</t>
   </si>
   <si>
-    <t>Z-MOT</t>
-  </si>
-  <si>
     <t>Z2 Stepper</t>
   </si>
   <si>
-    <t>E1-MOT</t>
-  </si>
-  <si>
     <t>SX</t>
   </si>
   <si>
@@ -224,6 +184,96 @@
   </si>
   <si>
     <t>FH2</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Electronics Thermistor</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>Thermistors</t>
+  </si>
+  <si>
+    <t>Limit Switches</t>
+  </si>
+  <si>
+    <t>MOT0</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>MOT2-1</t>
+  </si>
+  <si>
+    <t>MOT3</t>
+  </si>
+  <si>
+    <t>MOT4</t>
+  </si>
+  <si>
+    <t>Steppers</t>
+  </si>
+  <si>
+    <t>FE1</t>
+  </si>
+  <si>
+    <t>Intake Fane</t>
+  </si>
+  <si>
+    <t>FAN1</t>
+  </si>
+  <si>
+    <t>FAN4</t>
+  </si>
+  <si>
+    <t>FE2</t>
+  </si>
+  <si>
+    <t>Exhaust Fan</t>
+  </si>
+  <si>
+    <t>FAN3</t>
+  </si>
+  <si>
+    <t>FAN6</t>
+  </si>
+  <si>
+    <t>FE3</t>
+  </si>
+  <si>
+    <t>LGT</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Stepper Driver Fan</t>
   </si>
 </sst>
 </file>
@@ -288,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -600,16 +650,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,47 +675,41 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,185 +725,258 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+      <c r="A9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
+      <c r="A14" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+      <c r="A19" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C743501C-7370-4915-A49D-B410626C5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C08EFC-069A-470C-B348-2113E4B60AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10332" yWindow="5100" windowWidth="27792" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="24120" yWindow="564" windowWidth="18444" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>Terminal Label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Short Name</t>
   </si>
@@ -87,21 +81,9 @@
     <t>Left Z Limit Switch</t>
   </si>
   <si>
-    <t>Y-STOP/Y-MIN</t>
-  </si>
-  <si>
-    <t>X-STOP/X-MIN</t>
-  </si>
-  <si>
-    <t>Z-STOP/Z-MIN</t>
-  </si>
-  <si>
     <t>Right Z Limit Switch</t>
   </si>
   <si>
-    <t>E0-DET/Z-MAX</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
@@ -111,18 +93,6 @@
     <t>Bed Thermistor</t>
   </si>
   <si>
-    <t>Alpha Stepper</t>
-  </si>
-  <si>
-    <t>Beta Stepper</t>
-  </si>
-  <si>
-    <t>Z1 Stepper</t>
-  </si>
-  <si>
-    <t>Z2 Stepper</t>
-  </si>
-  <si>
     <t>SX</t>
   </si>
   <si>
@@ -243,9 +213,6 @@
     <t>FE1</t>
   </si>
   <si>
-    <t>Intake Fane</t>
-  </si>
-  <si>
     <t>FAN1</t>
   </si>
   <si>
@@ -274,6 +241,90 @@
   </si>
   <si>
     <t>Stepper Driver Fan</t>
+  </si>
+  <si>
+    <t>Z1 (Left) Stepper</t>
+  </si>
+  <si>
+    <t>Z2 (Right) Stepper</t>
+  </si>
+  <si>
+    <t>Alpha (Left) Stepper</t>
+  </si>
+  <si>
+    <t>Beta (Right) Stepper</t>
+  </si>
+  <si>
+    <t>FAN5</t>
+  </si>
+  <si>
+    <t>HE3</t>
+  </si>
+  <si>
+    <t>HE2</t>
+  </si>
+  <si>
+    <t>FE4</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Suppy Voltage</t>
+  </si>
+  <si>
+    <t>Intake Fan 1</t>
+  </si>
+  <si>
+    <t>Intake Fan 2</t>
+  </si>
+  <si>
+    <t>Varies Regionally</t>
+  </si>
+  <si>
+    <t>FAN7</t>
+  </si>
+  <si>
+    <t>5V (NC)</t>
+  </si>
+  <si>
+    <t>12V (NC)</t>
+  </si>
+  <si>
+    <t>Lights, secondary</t>
+  </si>
+  <si>
+    <t>STOP3</t>
+  </si>
+  <si>
+    <t>STOP2</t>
+  </si>
+  <si>
+    <t>STOP1</t>
+  </si>
+  <si>
+    <t>STOP0</t>
+  </si>
+  <si>
+    <t>Octopus Header Label</t>
+  </si>
+  <si>
+    <t>Lights, Signal</t>
+  </si>
+  <si>
+    <t>STOP-4</t>
+  </si>
+  <si>
+    <t>BLTouch</t>
   </si>
 </sst>
 </file>
@@ -338,16 +389,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
+  <autoFilter ref="A1:D35" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3612DE8-6536-466E-A137-4993F20AC6EE}" name="Short Name"/>
-    <tableColumn id="2" xr3:uid="{6F2ADC15-AB84-4A69-8025-B7142F348015}" name="Connector"/>
-    <tableColumn id="3" xr3:uid="{0CD11C45-8D63-4F31-9A69-974AAF728591}" name="Terminal Label"/>
+    <tableColumn id="2" xr3:uid="{6F2ADC15-AB84-4A69-8025-B7142F348015}" name="Component"/>
+    <tableColumn id="4" xr3:uid="{532E2B48-44FD-478A-A60E-F10CC10FA11F}" name="Suppy Voltage"/>
+    <tableColumn id="3" xr3:uid="{0CD11C45-8D63-4F31-9A69-974AAF728591}" name="Octopus Header Label"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,333 +703,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C08EFC-069A-470C-B348-2113E4B60AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F1798F-90C3-4957-B9C3-90A7740494E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24120" yWindow="564" windowWidth="18444" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>Short Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Hotend Thermistor</t>
   </si>
   <si>
-    <t>TH0</t>
-  </si>
-  <si>
     <t>Part Cooling Fan</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t>FH2</t>
   </si>
   <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>Power Supply</t>
-  </si>
-  <si>
     <t>RPI</t>
   </si>
   <si>
@@ -180,12 +171,6 @@
     <t>Lights</t>
   </si>
   <si>
-    <t>TH1</t>
-  </si>
-  <si>
-    <t>TH2</t>
-  </si>
-  <si>
     <t>Thermistors</t>
   </si>
   <si>
@@ -258,7 +243,7 @@
     <t>FAN5</t>
   </si>
   <si>
-    <t>HE3</t>
+    <t>HE1</t>
   </si>
   <si>
     <t>HE2</t>
@@ -288,9 +273,6 @@
     <t>Intake Fan 2</t>
   </si>
   <si>
-    <t>Varies Regionally</t>
-  </si>
-  <si>
     <t>FAN7</t>
   </si>
   <si>
@@ -321,10 +303,19 @@
     <t>Lights, Signal</t>
   </si>
   <si>
-    <t>STOP-4</t>
-  </si>
-  <si>
     <t>BLTouch</t>
+  </si>
+  <si>
+    <t>STOP4</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
 </sst>
 </file>
@@ -389,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
-  <autoFilter ref="A1:D35" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -703,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,29 +713,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -752,99 +743,99 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,11 +845,8 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,11 +856,8 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,139 +867,136 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
+      <c r="A15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
+      <c r="A26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,27 +1004,27 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,80 +1035,66 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F1798F-90C3-4957-B9C3-90A7740494E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EE1665-AC0D-42C2-AE62-34EE7AB42873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24120" yWindow="564" windowWidth="18444" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EE1665-AC0D-42C2-AE62-34EE7AB42873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6535E8E-099C-490B-A278-31919A5349F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24120" yWindow="564" windowWidth="18444" windowHeight="13200" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>Short Name</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>12V/24V</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6535E8E-099C-490B-A278-31919A5349F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE63477-F7D8-45A1-8D42-C538F5702696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>Short Name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>FAN1</t>
   </si>
   <si>
-    <t>FAN4</t>
-  </si>
-  <si>
     <t>FE2</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Stepper Driver Fan</t>
-  </si>
-  <si>
     <t>Z1 (Left) Stepper</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
   </si>
   <si>
     <t>HE2</t>
-  </si>
-  <si>
-    <t>FE4</t>
   </si>
   <si>
     <t>Component</t>
@@ -383,8 +374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0">
-  <autoFilter ref="A1:D34" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -697,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,18 +707,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -752,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -760,44 +751,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +813,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -944,7 +935,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -955,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -966,7 +957,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
@@ -996,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1010,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -1024,10 +1015,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,10 +1029,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,24 +1040,24 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1074,30 +1065,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE63477-F7D8-45A1-8D42-C538F5702696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABD07D-F8E6-426F-BEDD-E0AE723AEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
+    <sheet name="Hotend Connectors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>Short Name</t>
   </si>
@@ -310,6 +311,33 @@
   </si>
   <si>
     <t>12V/24V</t>
+  </si>
+  <si>
+    <t>Extruder stepper</t>
+  </si>
+  <si>
+    <t>Part cooling fan</t>
+  </si>
+  <si>
+    <t>Hotend fan</t>
+  </si>
+  <si>
+    <t>Hotend thermistor</t>
+  </si>
+  <si>
+    <t>Hotend heater</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -386,6 +414,19 @@
     <tableColumn id="2" xr3:uid="{6F2ADC15-AB84-4A69-8025-B7142F348015}" name="Component"/>
     <tableColumn id="4" xr3:uid="{532E2B48-44FD-478A-A60E-F10CC10FA11F}" name="Suppy Voltage"/>
     <tableColumn id="3" xr3:uid="{0CD11C45-8D63-4F31-9A69-974AAF728591}" name="Octopus Header Label"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F3EA9A1A-2559-4217-9065-3A07F2BE876C}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{8B3EE14C-21B3-4D4C-912C-F310C2501AC6}" name="Pins"/>
+    <tableColumn id="3" xr3:uid="{E740952C-5714-43EA-B7BD-340E5E849F6D}" name="AWG"/>
+    <tableColumn id="4" xr3:uid="{E90311C0-2294-4359-84FC-1B774F78BC14}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +801,7 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1046,7 +1087,7 @@
         <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,4 +1125,123 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1868B-6555-4CF5-BEB3-756D16E536C2}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABD07D-F8E6-426F-BEDD-E0AE723AEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15ED80-44B6-4F96-85C3-AA8AE6952B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-28290" yWindow="2370" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
-    <sheet name="Hotend Connectors" sheetId="2" r:id="rId2"/>
+    <sheet name="Upper Level Wiring" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>Short Name</t>
   </si>
@@ -268,12 +268,6 @@
     <t>FAN7</t>
   </si>
   <si>
-    <t>5V (NC)</t>
-  </si>
-  <si>
-    <t>12V (NC)</t>
-  </si>
-  <si>
     <t>Lights, secondary</t>
   </si>
   <si>
@@ -338,6 +332,45 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>Len. (cm)</t>
+  </si>
+  <si>
+    <t>Z2 Limit Switch</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>5/12V</t>
+  </si>
+  <si>
+    <t>3.3/5V</t>
+  </si>
+  <si>
+    <t>USB only, power via buck</t>
+  </si>
+  <si>
+    <t>Right Side Lights</t>
+  </si>
+  <si>
+    <t>Back Lights</t>
   </si>
 </sst>
 </file>
@@ -369,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,18 +410,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -420,12 +482,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F3EA9A1A-2559-4217-9065-3A07F2BE876C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{8B3EE14C-21B3-4D4C-912C-F310C2501AC6}" name="Pins"/>
+    <tableColumn id="2" xr3:uid="{8B3EE14C-21B3-4D4C-912C-F310C2501AC6}" name="Pins" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E740952C-5714-43EA-B7BD-340E5E849F6D}" name="AWG"/>
+    <tableColumn id="5" xr3:uid="{1AE9019C-5AF4-45A1-A43E-5DB0E9A4C59B}" name="Len. (cm)"/>
+    <tableColumn id="6" xr3:uid="{5326F89F-F80D-44E2-8468-33BD38E90A18}" name="Colors"/>
     <tableColumn id="4" xr3:uid="{E90311C0-2294-4359-84FC-1B774F78BC14}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -732,7 +803,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +825,7 @@
         <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,7 +840,7 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D3" t="s">
@@ -783,7 +854,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D4" t="s">
@@ -797,8 +868,8 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>71</v>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -809,10 +880,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -823,13 +894,13 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,11 +910,11 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
+      <c r="C8" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,8 +924,11 @@
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,8 +943,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,8 +957,11 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,8 +971,11 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,8 +985,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,7 +1027,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1042,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -1084,7 +1170,7 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>66</v>
@@ -1129,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1868B-6555-4CF5-BEB3-756D16E536C2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1137,105 +1223,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>92</v>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15ED80-44B6-4F96-85C3-AA8AE6952B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF39A7F9-72A0-4118-9AD2-E67E1DB306B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="2370" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-27945" yWindow="2715" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
     <sheet name="Upper Level Wiring" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>Short Name</t>
   </si>
@@ -371,6 +372,33 @@
   </si>
   <si>
     <t>Back Lights</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Z1 Limit Switch</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>WKYRG</t>
+  </si>
+  <si>
+    <t>1/2" PET wire loom</t>
+  </si>
+  <si>
+    <t>1/4" PET wire loom</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>RGK</t>
+  </si>
+  <si>
+    <t>4mm OD/2mm ID PTFE</t>
   </si>
 </sst>
 </file>
@@ -482,8 +510,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:F12" totalsRowShown="0">
-  <autoFilter ref="A1:F12" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1215,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1868B-6555-4CF5-BEB3-756D16E536C2}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,6 +1309,9 @@
       <c r="D3">
         <v>150</v>
       </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
       <c r="F3" t="s">
         <v>93</v>
       </c>
@@ -1338,6 +1369,9 @@
       <c r="D6">
         <v>150</v>
       </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -1408,7 +1442,9 @@
       <c r="D10" s="2">
         <v>80</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1443,12 +1479,103 @@
       <c r="D12">
         <v>110</v>
       </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B13" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF39A7F9-72A0-4118-9AD2-E67E1DB306B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDCDFA-29F7-4608-885A-61FF012E5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27945" yWindow="2715" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
     <sheet name="Upper Level Wiring" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
   <si>
     <t>Short Name</t>
   </si>
@@ -399,6 +399,24 @@
   </si>
   <si>
     <t>4mm OD/2mm ID PTFE</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>Conn B</t>
+  </si>
+  <si>
+    <t>Conn A</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Pin Count</t>
+  </si>
+  <si>
+    <t>Cable</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1868B-6555-4CF5-BEB3-756D16E536C2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,4 +1598,49 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDCDFA-29F7-4608-885A-61FF012E5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A05DA7-7320-41A1-951D-6F38B1245747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
@@ -401,9 +401,6 @@
     <t>4mm OD/2mm ID PTFE</t>
   </si>
   <si>
-    <t>Wrap</t>
-  </si>
-  <si>
     <t>Conn B</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Cable</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>69</v>
@@ -1625,19 +1625,19 @@
         <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A05DA7-7320-41A1-951D-6F38B1245747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACC041-94C0-404D-9E34-BFFAC046874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
-    <sheet name="Upper Level Wiring" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Fabricated Cables" sheetId="3" r:id="rId2"/>
+    <sheet name="Other Cables" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="210">
   <si>
     <t>Short Name</t>
   </si>
@@ -308,57 +308,18 @@
     <t>12V/24V</t>
   </si>
   <si>
-    <t>Extruder stepper</t>
-  </si>
-  <si>
-    <t>Part cooling fan</t>
-  </si>
-  <si>
-    <t>Hotend fan</t>
-  </si>
-  <si>
-    <t>Hotend thermistor</t>
-  </si>
-  <si>
-    <t>Hotend heater</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>AWG</t>
   </si>
   <si>
-    <t>Pins</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>RK</t>
-  </si>
-  <si>
-    <t>Len. (cm)</t>
-  </si>
-  <si>
-    <t>Z2 Limit Switch</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
     <t>5/12V</t>
   </si>
   <si>
@@ -368,48 +329,15 @@
     <t>USB only, power via buck</t>
   </si>
   <si>
-    <t>Right Side Lights</t>
-  </si>
-  <si>
-    <t>Back Lights</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Z1 Limit Switch</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>WKYRG</t>
-  </si>
-  <si>
-    <t>1/2" PET wire loom</t>
-  </si>
-  <si>
-    <t>1/4" PET wire loom</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>RGK</t>
-  </si>
-  <si>
-    <t>4mm OD/2mm ID PTFE</t>
-  </si>
-  <si>
     <t>Conn B</t>
   </si>
   <si>
     <t>Conn A</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Pin Count</t>
   </si>
   <si>
@@ -417,6 +345,327 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>HE-A</t>
+  </si>
+  <si>
+    <t>HE-B</t>
+  </si>
+  <si>
+    <t>TH-B</t>
+  </si>
+  <si>
+    <t>FH1-B</t>
+  </si>
+  <si>
+    <t>FH2-B</t>
+  </si>
+  <si>
+    <t>ABL-B</t>
+  </si>
+  <si>
+    <t>ME-B</t>
+  </si>
+  <si>
+    <t>SX-B</t>
+  </si>
+  <si>
+    <t>SZ2-B</t>
+  </si>
+  <si>
+    <t>L2-B</t>
+  </si>
+  <si>
+    <t>SY-B</t>
+  </si>
+  <si>
+    <t>L3-B</t>
+  </si>
+  <si>
+    <t>SZ1-B</t>
+  </si>
+  <si>
+    <t>L1-B</t>
+  </si>
+  <si>
+    <t>Len (cm)</t>
+  </si>
+  <si>
+    <t>SM F</t>
+  </si>
+  <si>
+    <t>SM M</t>
+  </si>
+  <si>
+    <t>FH1-A</t>
+  </si>
+  <si>
+    <t>FH2-A</t>
+  </si>
+  <si>
+    <t>ABL-A</t>
+  </si>
+  <si>
+    <t>ABL-C</t>
+  </si>
+  <si>
+    <t>ME-A</t>
+  </si>
+  <si>
+    <t>Toolhead panel to BlTouch</t>
+  </si>
+  <si>
+    <t>ME-C</t>
+  </si>
+  <si>
+    <t>If stepper has built-in plug</t>
+  </si>
+  <si>
+    <t>L1-A</t>
+  </si>
+  <si>
+    <t>L1-C</t>
+  </si>
+  <si>
+    <t>L2-A</t>
+  </si>
+  <si>
+    <t>L2-C</t>
+  </si>
+  <si>
+    <t>L3-A</t>
+  </si>
+  <si>
+    <t>L3-C</t>
+  </si>
+  <si>
+    <t>TH-A</t>
+  </si>
+  <si>
+    <t>SX-A</t>
+  </si>
+  <si>
+    <t>SY-A</t>
+  </si>
+  <si>
+    <t>SZ1-A</t>
+  </si>
+  <si>
+    <t>SZ2-A</t>
+  </si>
+  <si>
+    <t>MZ1-A</t>
+  </si>
+  <si>
+    <t>MZ2-A</t>
+  </si>
+  <si>
+    <t>MA-A</t>
+  </si>
+  <si>
+    <t>MA-B</t>
+  </si>
+  <si>
+    <t>MB-A</t>
+  </si>
+  <si>
+    <t>MB-B</t>
+  </si>
+  <si>
+    <t>(None)</t>
+  </si>
+  <si>
+    <t>XH F</t>
+  </si>
+  <si>
+    <t>JST-SH F</t>
+  </si>
+  <si>
+    <t>JST-PH F</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>AC-A</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Spade</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>AC- in to power switch</t>
+  </si>
+  <si>
+    <t>AC+ fuse to PSU VIN+</t>
+  </si>
+  <si>
+    <t>Power switch to VIN-</t>
+  </si>
+  <si>
+    <t>DC24-A1</t>
+  </si>
+  <si>
+    <t>DC24</t>
+  </si>
+  <si>
+    <t>PSU DC to MCU, pair 1</t>
+  </si>
+  <si>
+    <t>DC24-A2</t>
+  </si>
+  <si>
+    <t>PSU DC to MCU, pair 2</t>
+  </si>
+  <si>
+    <t>PSU DC to MCU, pair 3</t>
+  </si>
+  <si>
+    <t>DC24-B1</t>
+  </si>
+  <si>
+    <t>DC24-A3</t>
+  </si>
+  <si>
+    <t>PSU DC to 5V Buck</t>
+  </si>
+  <si>
+    <t>EARTH-A</t>
+  </si>
+  <si>
+    <t>EARTH</t>
+  </si>
+  <si>
+    <t>AC Earth to PSU Earth</t>
+  </si>
+  <si>
+    <t>EARTH-B</t>
+  </si>
+  <si>
+    <t>PSU Earth to Frame</t>
+  </si>
+  <si>
+    <t>TB-A</t>
+  </si>
+  <si>
+    <t>TC-A</t>
+  </si>
+  <si>
+    <t>TC-B</t>
+  </si>
+  <si>
+    <t>AC-B</t>
+  </si>
+  <si>
+    <t>AC-C</t>
+  </si>
+  <si>
+    <t>TE-A</t>
+  </si>
+  <si>
+    <t>SX F</t>
+  </si>
+  <si>
+    <t>Soldered-on pigtail</t>
+  </si>
+  <si>
+    <t>If stepper connector added</t>
+  </si>
+  <si>
+    <t>FC1-A</t>
+  </si>
+  <si>
+    <t>FC1-B</t>
+  </si>
+  <si>
+    <t>FC2-A</t>
+  </si>
+  <si>
+    <t>FC2-B</t>
+  </si>
+  <si>
+    <t>Can be shortened</t>
+  </si>
+  <si>
+    <t>Estimated at max</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>EXP2</t>
+  </si>
+  <si>
+    <t>10 pin IDC Ribbon Cable</t>
+  </si>
+  <si>
+    <t>IEC C13 power cable</t>
+  </si>
+  <si>
+    <t>ACIN</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>20 pin flat ribbon cable</t>
+  </si>
+  <si>
+    <t>USB C Cable</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Tot Len</t>
+  </si>
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>Cable ID</t>
+  </si>
+  <si>
+    <t>PN966</t>
+  </si>
+  <si>
+    <t>PN967</t>
+  </si>
+  <si>
+    <t>PN968</t>
+  </si>
+  <si>
+    <t>PN985</t>
+  </si>
+  <si>
+    <t>AC Input power</t>
+  </si>
+  <si>
+    <t>120VAC/240VAC</t>
+  </si>
+  <si>
+    <t>PSU Out</t>
+  </si>
+  <si>
+    <t>Frame/bed earthing wires</t>
+  </si>
+  <si>
+    <t>Power In</t>
+  </si>
+  <si>
+    <t>Comes with Mini 12864</t>
+  </si>
+  <si>
+    <t>Comes with ArduCam</t>
+  </si>
+  <si>
+    <t>For MCU &lt;-&gt; RPI comms</t>
   </si>
 </sst>
 </file>
@@ -448,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -456,45 +705,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,8 +736,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -528,22 +754,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0354E98D-3659-45E4-8C0A-CE5AE43F1A3E}" name="Table13" displayName="Table13" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{DC48BFC0-82F8-4E68-A85C-1DBDC70C7484}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F3EA9A1A-2559-4217-9065-3A07F2BE876C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{8B3EE14C-21B3-4D4C-912C-F310C2501AC6}" name="Pins" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E740952C-5714-43EA-B7BD-340E5E849F6D}" name="AWG"/>
-    <tableColumn id="5" xr3:uid="{1AE9019C-5AF4-45A1-A43E-5DB0E9A4C59B}" name="Len. (cm)"/>
-    <tableColumn id="6" xr3:uid="{5326F89F-F80D-44E2-8468-33BD38E90A18}" name="Colors"/>
-    <tableColumn id="4" xr3:uid="{E90311C0-2294-4359-84FC-1B774F78BC14}" name="Description"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:I55" totalsRowShown="0">
+  <autoFilter ref="A1:I55" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
+    <sortCondition ref="C1:C55"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{FBF2E2EC-CB79-4DAF-A0AD-5C50EC7D1CF7}" name="Cable"/>
+    <tableColumn id="2" xr3:uid="{0DCCB1C4-6A24-4706-96E7-F2E992D16F07}" name="Component"/>
+    <tableColumn id="3" xr3:uid="{12F9C25F-8EE1-4903-9829-BB393B754AE2}" name="AWG"/>
+    <tableColumn id="4" xr3:uid="{9DAEE46D-2720-4E12-B7C7-7347C849AB98}" name="Pin Count"/>
+    <tableColumn id="5" xr3:uid="{09BB7B9C-817F-47EC-B02A-087CF00AE010}" name="Len (cm)"/>
+    <tableColumn id="6" xr3:uid="{41A61DCB-EB69-4ABD-AC8C-6A79DAAE3294}" name="Conn A"/>
+    <tableColumn id="7" xr3:uid="{1D8EF2F9-8563-42CE-9B38-42AA63B17702}" name="Conn B"/>
+    <tableColumn id="8" xr3:uid="{0634F095-E2EE-44F0-B066-066F504AA291}" name="Notes"/>
+    <tableColumn id="9" xr3:uid="{3019ADCC-9D4D-4BE2-8202-480C595FD971}" name="Tot Len" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7AED5D-0E87-4DE0-82C3-46EC5BD78623}" name="Table4" displayName="Table4" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{4B7AED5D-0E87-4DE0-82C3-46EC5BD78623}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{8D716288-1584-4152-B1EA-0DBC05679C1F}" name="Part ID"/>
+    <tableColumn id="1" xr3:uid="{BA0F0EE6-C283-4260-92DF-5284535C6866}" name="Cable ID"/>
+    <tableColumn id="2" xr3:uid="{F1A17D76-4BD5-4E2E-8A7E-BA0DE483B5F9}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{83C387BC-9FDF-4EA5-8D77-72D939809153}" name="Len (cm)"/>
+    <tableColumn id="5" xr3:uid="{BF334402-3D69-4A9F-B34A-291C5CDFB1BC}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +1127,7 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D3" t="s">
@@ -900,7 +1141,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D4" t="s">
@@ -914,8 +1155,8 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>107</v>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -928,8 +1169,8 @@
       <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -942,7 +1183,7 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
@@ -956,8 +1197,8 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
@@ -970,11 +1211,11 @@
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,6 +1489,41 @@
       </c>
       <c r="D33" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1260,340 +1536,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1868B-6555-4CF5-BEB3-756D16E536C2}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>90</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>80</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I30">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F40" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
         <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55">
+        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B13" numberStoredAsText="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1601,46 +3107,123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E4094C-9254-4EC7-8CD2-E477AEAD8BCF}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACC041-94C0-404D-9E34-BFFAC046874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2058E-D2AD-43D6-8871-7E066D5E7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="2730" yWindow="2595" windowWidth="13320" windowHeight="8985" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
   <si>
     <t>Short Name</t>
   </si>
@@ -569,9 +569,6 @@
     <t>TE-A</t>
   </si>
   <si>
-    <t>SX F</t>
-  </si>
-  <si>
     <t>Soldered-on pigtail</t>
   </si>
   <si>
@@ -621,9 +618,6 @@
   </si>
   <si>
     <t>USB</t>
-  </si>
-  <si>
-    <t>Tot Len</t>
   </si>
   <si>
     <t>Part ID</t>
@@ -718,11 +712,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,12 +744,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:I55" totalsRowShown="0">
-  <autoFilter ref="A1:I55" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FBF2E2EC-CB79-4DAF-A0AD-5C50EC7D1CF7}" name="Cable"/>
     <tableColumn id="2" xr3:uid="{0DCCB1C4-6A24-4706-96E7-F2E992D16F07}" name="Component"/>
     <tableColumn id="3" xr3:uid="{12F9C25F-8EE1-4903-9829-BB393B754AE2}" name="AWG"/>
@@ -768,9 +758,6 @@
     <tableColumn id="6" xr3:uid="{41A61DCB-EB69-4ABD-AC8C-6A79DAAE3294}" name="Conn A"/>
     <tableColumn id="7" xr3:uid="{1D8EF2F9-8563-42CE-9B38-42AA63B17702}" name="Conn B"/>
     <tableColumn id="8" xr3:uid="{0634F095-E2EE-44F0-B066-066F504AA291}" name="Notes"/>
-    <tableColumn id="9" xr3:uid="{3019ADCC-9D4D-4BE2-8202-480C595FD971}" name="Tot Len" dataDxfId="0">
-      <calculatedColumnFormula>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1493,7 +1480,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1488,10 @@
         <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,7 +1499,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -1523,7 +1510,7 @@
         <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1537,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1541,7 @@
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1579,11 +1566,8 @@
       <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1608,12 +1592,8 @@
       <c r="H2" t="s">
         <v>154</v>
       </c>
-      <c r="I2">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -1638,12 +1618,8 @@
       <c r="H3" t="s">
         <v>156</v>
       </c>
-      <c r="I3">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -1668,12 +1644,8 @@
       <c r="H4" t="s">
         <v>155</v>
       </c>
-      <c r="I4">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1698,12 +1670,8 @@
       <c r="H5" t="s">
         <v>159</v>
       </c>
-      <c r="I5">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1728,12 +1696,8 @@
       <c r="H6" t="s">
         <v>161</v>
       </c>
-      <c r="I6">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -1758,12 +1722,8 @@
       <c r="H7" t="s">
         <v>162</v>
       </c>
-      <c r="I7">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -1788,12 +1748,8 @@
       <c r="H8" t="s">
         <v>168</v>
       </c>
-      <c r="I8">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1815,12 +1771,8 @@
       <c r="G9" t="s">
         <v>118</v>
       </c>
-      <c r="I9">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1842,12 +1794,8 @@
       <c r="G10" t="s">
         <v>118</v>
       </c>
-      <c r="I10">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1872,12 +1820,8 @@
       <c r="H11" t="s">
         <v>165</v>
       </c>
-      <c r="I11">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -1902,12 +1846,8 @@
       <c r="H12" t="s">
         <v>170</v>
       </c>
-      <c r="I12">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -1929,12 +1869,8 @@
       <c r="G13" t="s">
         <v>118</v>
       </c>
-      <c r="I13">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1956,12 +1892,8 @@
       <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="I14">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -1983,12 +1915,8 @@
       <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="I15">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -2010,12 +1938,8 @@
       <c r="G16" t="s">
         <v>118</v>
       </c>
-      <c r="I16">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -2037,12 +1961,8 @@
       <c r="G17" t="s">
         <v>118</v>
       </c>
-      <c r="I17">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -2064,12 +1984,8 @@
       <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="I18">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2092,14 +2008,10 @@
         <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -2121,12 +2033,8 @@
       <c r="G20" t="s">
         <v>118</v>
       </c>
-      <c r="I20">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -2148,12 +2056,8 @@
       <c r="G21" t="s">
         <v>118</v>
       </c>
-      <c r="I21">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2175,12 +2079,8 @@
       <c r="G22" t="s">
         <v>118</v>
       </c>
-      <c r="I22">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -2205,12 +2105,8 @@
       <c r="H23" t="s">
         <v>127</v>
       </c>
-      <c r="I23">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -2232,12 +2128,8 @@
       <c r="G24" t="s">
         <v>118</v>
       </c>
-      <c r="I24">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2259,12 +2151,8 @@
       <c r="G25" t="s">
         <v>118</v>
       </c>
-      <c r="I25">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -2287,14 +2175,10 @@
         <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -2316,12 +2200,8 @@
       <c r="G27" t="s">
         <v>118</v>
       </c>
-      <c r="I27">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -2343,12 +2223,8 @@
       <c r="G28" t="s">
         <v>118</v>
       </c>
-      <c r="I28">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -2371,14 +2247,10 @@
         <v>145</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2401,14 +2273,10 @@
         <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2430,12 +2298,8 @@
       <c r="G31" t="s">
         <v>118</v>
       </c>
-      <c r="I31">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -2458,14 +2322,10 @@
         <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -2487,12 +2347,8 @@
       <c r="G33" t="s">
         <v>118</v>
       </c>
-      <c r="I33">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2512,14 +2368,10 @@
         <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2541,12 +2393,8 @@
       <c r="G35" t="s">
         <v>118</v>
       </c>
-      <c r="I35">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2566,14 +2414,10 @@
         <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
-      </c>
-      <c r="I36">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -2595,12 +2439,8 @@
       <c r="G37" t="s">
         <v>118</v>
       </c>
-      <c r="I37">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2620,14 +2460,10 @@
         <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
-      </c>
-      <c r="I38">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -2649,12 +2485,8 @@
       <c r="G39" t="s">
         <v>118</v>
       </c>
-      <c r="I39">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2674,14 +2506,10 @@
         <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -2703,12 +2531,8 @@
       <c r="G41" t="s">
         <v>118</v>
       </c>
-      <c r="I41">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -2728,14 +2552,10 @@
         <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2757,12 +2577,8 @@
       <c r="G43" t="s">
         <v>118</v>
       </c>
-      <c r="I43">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2785,14 +2601,10 @@
         <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
-      </c>
-      <c r="I44">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2817,12 +2629,8 @@
       <c r="H45" t="s">
         <v>127</v>
       </c>
-      <c r="I45">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -2847,12 +2655,8 @@
       <c r="H46" t="s">
         <v>127</v>
       </c>
-      <c r="I46">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -2874,12 +2678,8 @@
       <c r="G47" t="s">
         <v>118</v>
       </c>
-      <c r="I47">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -2901,12 +2701,8 @@
       <c r="G48" t="s">
         <v>118</v>
       </c>
-      <c r="I48">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -2928,12 +2724,8 @@
       <c r="G49" t="s">
         <v>118</v>
       </c>
-      <c r="I49">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -2955,14 +2747,10 @@
       <c r="G50" t="s">
         <v>118</v>
       </c>
-      <c r="I50">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -2982,14 +2770,10 @@
       <c r="G51" t="s">
         <v>118</v>
       </c>
-      <c r="I51">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -3009,14 +2793,10 @@
       <c r="G52" t="s">
         <v>118</v>
       </c>
-      <c r="I52">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -3036,14 +2816,10 @@
       <c r="G53" t="s">
         <v>118</v>
       </c>
-      <c r="I53">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -3063,12 +2839,8 @@
       <c r="G54" t="s">
         <v>118</v>
       </c>
-      <c r="I54">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -3092,10 +2864,6 @@
       </c>
       <c r="H55" t="s">
         <v>125</v>
-      </c>
-      <c r="I55">
-        <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E4094C-9254-4EC7-8CD2-E477AEAD8BCF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3123,10 +2891,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
@@ -3140,47 +2908,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>188</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -3188,36 +2956,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" t="s">
-        <v>192</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2058E-D2AD-43D6-8871-7E066D5E7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE908B9-4BD2-42C0-A0DB-C0228007B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2595" windowWidth="13320" windowHeight="8985" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-19950" yWindow="1245" windowWidth="15330" windowHeight="14535" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="223">
   <si>
     <t>Short Name</t>
   </si>
@@ -392,9 +392,6 @@
     <t>Len (cm)</t>
   </si>
   <si>
-    <t>SM F</t>
-  </si>
-  <si>
     <t>SM M</t>
   </si>
   <si>
@@ -479,12 +476,6 @@
     <t>XH F</t>
   </si>
   <si>
-    <t>JST-SH F</t>
-  </si>
-  <si>
-    <t>JST-PH F</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -660,6 +651,60 @@
   </si>
   <si>
     <t>For MCU &lt;-&gt; RPI comms</t>
+  </si>
+  <si>
+    <t>LGT-A1</t>
+  </si>
+  <si>
+    <t>Pairs with LGT-A2</t>
+  </si>
+  <si>
+    <t>LGT-A2</t>
+  </si>
+  <si>
+    <t>Pairs with LGT-A2, uses 3 pin connector</t>
+  </si>
+  <si>
+    <t>XH F3</t>
+  </si>
+  <si>
+    <t>XH F2</t>
+  </si>
+  <si>
+    <t>SM M5</t>
+  </si>
+  <si>
+    <t>SM M2</t>
+  </si>
+  <si>
+    <t>XH F4</t>
+  </si>
+  <si>
+    <t>SM M4</t>
+  </si>
+  <si>
+    <t>SM M3</t>
+  </si>
+  <si>
+    <t>JST-SH F5</t>
+  </si>
+  <si>
+    <t>SM F2</t>
+  </si>
+  <si>
+    <t>SM F5</t>
+  </si>
+  <si>
+    <t>SM F4</t>
+  </si>
+  <si>
+    <t>JST-PH F4</t>
+  </si>
+  <si>
+    <t>SM F3</t>
+  </si>
+  <si>
+    <t>LGT-A3</t>
   </si>
 </sst>
 </file>
@@ -744,8 +789,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:H58" totalsRowShown="0">
+  <autoFilter ref="A1:H58" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
@@ -1077,7 +1122,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,26 +1525,26 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -1507,10 +1552,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1524,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1583,7 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1569,10 +1614,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -1584,21 +1629,21 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -1610,21 +1655,21 @@
         <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1636,21 +1681,21 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
         <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1662,21 +1707,21 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1688,21 +1733,21 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1714,21 +1759,21 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1740,13 +1785,13 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1766,10 +1811,10 @@
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,18 +1834,18 @@
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -1812,21 +1857,21 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1838,18 +1883,18 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1864,10 +1909,10 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,15 +1932,15 @@
         <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1910,10 +1955,10 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1933,15 +1978,15 @@
         <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1956,10 +2001,10 @@
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1979,15 +2024,15 @@
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2002,13 +2047,13 @@
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,15 +2073,15 @@
         <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2051,10 +2096,10 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2074,15 +2119,15 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -2097,18 +2142,18 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
@@ -2123,10 +2168,10 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,15 +2191,15 @@
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
@@ -2169,18 +2214,18 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -2195,10 +2240,10 @@
         <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,15 +2263,15 @@
         <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -2241,18 +2286,18 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>92</v>
@@ -2267,13 +2312,13 @@
         <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2293,15 +2338,15 @@
         <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>92</v>
@@ -2316,18 +2361,18 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2342,10 +2387,10 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2365,15 +2410,15 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -2388,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2411,15 +2456,15 @@
         <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -2434,10 +2479,10 @@
         <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2457,15 +2502,15 @@
         <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -2480,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,15 +2548,15 @@
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2526,15 +2571,15 @@
         <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2546,18 +2591,18 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -2572,15 +2617,15 @@
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -2595,18 +2640,18 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -2621,18 +2666,18 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -2647,18 +2692,18 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="H46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -2673,15 +2718,15 @@
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -2696,15 +2741,15 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2719,15 +2764,15 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
@@ -2742,15 +2787,15 @@
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -2765,15 +2810,15 @@
         <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -2788,15 +2833,15 @@
         <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -2811,15 +2856,15 @@
         <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -2834,15 +2879,15 @@
         <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2857,13 +2902,88 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>85</v>
+      </c>
+      <c r="F56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +3011,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
@@ -2908,47 +3028,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2956,36 +3076,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Connectors.xlsx
+++ b/Docs/Connectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE908B9-4BD2-42C0-A0DB-C0228007B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5D0F9-27C3-4BA7-A78F-AFB647795669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19950" yWindow="1245" windowWidth="15330" windowHeight="14535" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector IDs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="225">
   <si>
     <t>Short Name</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>LGT-A3</t>
+  </si>
+  <si>
+    <t>BED-1</t>
+  </si>
+  <si>
+    <t>XT 60</t>
   </si>
 </sst>
 </file>
@@ -789,8 +795,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:H58" totalsRowShown="0">
-  <autoFilter ref="A1:H58" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}" name="Table3" displayName="Table3" ref="A1:H59" totalsRowShown="0">
+  <autoFilter ref="A1:H59" xr:uid="{DCEE01FF-B217-412A-8334-832E426EC070}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
@@ -1569,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1825,7 +1831,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1848,7 +1854,7 @@
         <v>155</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1874,7 +1880,7 @@
         <v>164</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2590,6 +2596,9 @@
       <c r="D42">
         <v>4</v>
       </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
       <c r="F42" t="s">
         <v>214</v>
       </c>
@@ -2983,6 +2992,29 @@
         <v>210</v>
       </c>
       <c r="G58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" t="s">
         <v>150</v>
       </c>
     </row>
